--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BD2AC34E-FD25-443C-B86A-BC66B7AD9D3E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,12 +430,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -447,9 +448,23 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -470,10 +485,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,15 +497,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -538,7 +564,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,9 +597,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,6 +649,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -781,79 +841,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.25" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,13 +921,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -875,13 +935,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,13 +949,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -903,13 +963,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -917,13 +977,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,13 +991,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -945,13 +1005,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -959,13 +1019,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -973,13 +1033,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>117</v>
       </c>
@@ -987,7 +1047,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>118</v>
       </c>
@@ -995,7 +1055,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1003,13 +1063,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -1017,13 +1077,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,13 +1091,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1045,13 +1105,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -1059,13 +1119,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -1073,13 +1133,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1087,13 +1147,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -1101,13 +1161,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -1115,13 +1175,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -1129,13 +1189,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -1143,13 +1203,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
@@ -1157,13 +1217,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -1171,13 +1231,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>119</v>
       </c>
@@ -1185,7 +1245,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
@@ -1193,7 +1253,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>25</v>
       </c>
@@ -1201,13 +1261,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
@@ -1215,13 +1275,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>28</v>
       </c>
@@ -1229,13 +1289,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
@@ -1243,13 +1303,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>30</v>
       </c>
@@ -1257,13 +1317,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>31</v>
       </c>
@@ -1271,13 +1331,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>32</v>
       </c>
@@ -1285,13 +1345,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>120</v>
       </c>
@@ -1299,7 +1359,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>116</v>
       </c>
@@ -1307,7 +1367,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>107</v>
       </c>
@@ -1315,13 +1375,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>33</v>
       </c>
@@ -1329,13 +1389,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>34</v>
       </c>
@@ -1343,13 +1403,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
@@ -1357,7 +1417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
         <v>41</v>
@@ -1365,18 +1425,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{5003562B-EE75-4167-8CF6-D2A9334E0076}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1384,12 +1447,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BD2AC34E-FD25-443C-B86A-BC66B7AD9D3E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C62352A-6FEA-4FD1-AB06-7053CF65E172}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,7 +845,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -914,7 +914,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C62352A-6FEA-4FD1-AB06-7053CF65E172}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5513AB0-CC15-4FCB-A56B-C5740DF4BB37}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,7 +845,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -928,7 +928,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -942,7 +942,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5513AB0-CC15-4FCB-A56B-C5740DF4BB37}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A4F53B6E-1281-4259-8B6B-342C19DFB8FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,7 +845,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -956,7 +956,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A4F53B6E-1281-4259-8B6B-342C19DFB8FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{31EE8DCE-F013-4D63-AB8E-49DCB27918A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{31EE8DCE-F013-4D63-AB8E-49DCB27918A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{843E6D6C-FDFE-4F7D-8CBE-77DA1AE8E483}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +467,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -489,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,6 +508,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -845,7 +854,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -984,7 +993,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -998,7 +1007,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1012,7 +1021,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10513"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{843E6D6C-FDFE-4F7D-8CBE-77DA1AE8E483}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C619479E-6C77-9748-8BDA-4351D0BA77B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +473,22 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -495,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -512,10 +528,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -531,7 +553,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -853,18 +875,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:2" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>115</v>
       </c>
@@ -872,7 +894,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>116</v>
       </c>
@@ -880,7 +902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -888,13 +910,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -902,13 +924,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -916,13 +938,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -930,13 +952,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -944,13 +966,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -958,13 +980,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -972,13 +994,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -986,13 +1008,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1000,13 +1022,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -1014,13 +1036,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -1028,35 +1050,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2" ht="20" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" ht="20" customHeight="1">
+      <c r="A27" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>118</v>
       </c>
@@ -1064,7 +1086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1072,27 +1094,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2" ht="20" customHeight="1">
+      <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,13 +1122,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1114,13 +1136,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -1128,13 +1150,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -1142,13 +1164,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1156,13 +1178,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:2" ht="20" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:2" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -1170,13 +1192,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:2" ht="20" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:2" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -1184,13 +1206,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:2" ht="20" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:2" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -1198,13 +1220,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:2" ht="20" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:2" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -1212,13 +1234,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:2" ht="20" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:2" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
@@ -1226,13 +1248,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:2" ht="20" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:2" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -1240,13 +1262,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:2" ht="20" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:2" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>119</v>
       </c>
@@ -1254,7 +1276,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:2" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
@@ -1262,7 +1284,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:2" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>25</v>
       </c>
@@ -1270,13 +1292,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:2" ht="20" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:2" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
@@ -1284,13 +1306,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:2" ht="20" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:2" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>28</v>
       </c>
@@ -1298,13 +1320,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:2" ht="20" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:2" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
@@ -1312,13 +1334,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:2" ht="20" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:2" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>30</v>
       </c>
@@ -1326,13 +1348,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:2" ht="20" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:2" ht="20" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>31</v>
       </c>
@@ -1340,13 +1362,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:2" ht="20" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:2" ht="20" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>32</v>
       </c>
@@ -1354,13 +1376,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:2" ht="20" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:2" ht="20" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>120</v>
       </c>
@@ -1368,7 +1390,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:2" ht="20" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>116</v>
       </c>
@@ -1376,7 +1398,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:2" ht="20" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>107</v>
       </c>
@@ -1384,13 +1406,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:2" ht="20" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:2" ht="20" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>33</v>
       </c>
@@ -1398,13 +1420,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:2" ht="20" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:2" ht="20" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>34</v>
       </c>
@@ -1412,13 +1434,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:2" ht="20" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:2" ht="20" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,7 +1448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:2" ht="20" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
         <v>41</v>
@@ -1448,7 +1470,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1461,7 +1483,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10513"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C619479E-6C77-9748-8BDA-4351D0BA77B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13A5C68-1FAE-C041-BBD8-F566F8277F07}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,6 +533,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -875,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1079,7 +1082,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1115,7 +1118,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10513"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13A5C68-1FAE-C041-BBD8-F566F8277F07}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E54BE97-9BCD-5545-BBCB-0DEB6B74A160}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1132,7 +1132,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1146,7 +1146,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10513"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E54BE97-9BCD-5545-BBCB-0DEB6B74A160}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ECAF4C-7A2A-7A4E-A30D-C606831F21FC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1160,7 +1160,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10513"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ECAF4C-7A2A-7A4E-A30D-C606831F21FC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5B5CD8-5C5E-F44B-BC49-2779CFC527E3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1174,7 +1174,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1188,7 +1188,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="2" t="s">

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B30A27-E9BD-4A25-B692-B8BF62D40CB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4CE184-074F-444F-A7C1-9AEED61855EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,359 +71,358 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> LOUIS VUITTON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MICHAEL KORS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miu miu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salvatore Ferragamo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUART WEITZMAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIFFANY&amp;Co.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valentino</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSACE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>furla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOD'S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fendi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRADA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I.T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PANDORA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montblanc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ermenegildo Zegna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUNHILL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hogan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLEX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIAGET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E6%9C%80%E6%96%B0%E4%B8%8A%E6%9E%B6#{%22ytosQuery%22:%22true%22,%22department%22:%22nwrrvlsw%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2216%22,%22partialLoadedItems%22:%2216%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22nwrrvlsw%22,%22page%22:1}]}</t>
+  </si>
+  <si>
+    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E7%94%84%E9%80%89%E7%A4%BC%E7%89%A9?TP=174469&amp;utm_source=20181016_BAL_collection_WFP_Ramp_up_m&amp;utm_medium=email&amp;utm_campaign=cn&amp;utm_content=cta1#{%22ytosQuery%22:%22true%22,%22department%22:%22gftngslcww%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2211%22,%22partialLoadedItems%22:%2211%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22gftngslcww%22,%22page%22:1}]}</t>
+  </si>
+  <si>
+    <t>https://www.chanel.cn/zh_CN/fragrance-beauty/fragrance/p/women/n_5.html</t>
+  </si>
+  <si>
+    <t>https://cn.burberry.com/womens-new-arrivals-new-in/</t>
+  </si>
+  <si>
+    <t>https://cn.burberry.com/baby/</t>
+  </si>
+  <si>
+    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%8C%85%E8%A2%8B/%E6%89%98%E7%89%B9%E6%89%8B%E8%A2%8B/c/123-Tods/</t>
+  </si>
+  <si>
+    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%BF%85%E7%9C%8B/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/c/194-Tods/</t>
+  </si>
+  <si>
+    <t>https://www.cartier.cn/zh-cn/%E7%B3%BB%E5%88%97/%E7%8F%A0%E5%AE%9D%E7%B3%BB%E5%88%97/%E7%B1%BB%E5%88%AB.viewall.html</t>
+  </si>
+  <si>
+    <t>https://www.cartier.cn/zh-cn/%E7%B3%BB%E5%88%97/%E9%85%8D%E4%BB%B6%E7%B3%BB%E5%88%97/%E7%9A%AE%E5%85%B7.viewall.html</t>
+  </si>
+  <si>
+    <t>https://www.tiffany.cn/jewelry/new-jewelry?trackbgfm=nav</t>
+  </si>
+  <si>
+    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%BD%93%E5%AD%A3%E7%B3%BB%E5%88%97/</t>
+  </si>
+  <si>
+    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%85%A8%E6%96%B0%E7%B3%BB%E5%88%97/</t>
+  </si>
+  <si>
+    <t>https://china.coach.com/women/newarrivals.htm?nav=09900100100</t>
+  </si>
+  <si>
+    <t>https://china.coach.com/women/dreamer.htm?nav=09800600150</t>
+  </si>
+  <si>
+    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E6%88%90%E8%A1%A3/%E6%89%80%E6%9C%89%E6%88%90%E8%A1%A3</t>
+  </si>
+  <si>
+    <t>https://store.dolcegabbana.com/zh/%E5%A5%B3%E5%A3%AB/%E6%9C%8D%E8%A3%85/</t>
+  </si>
+  <si>
+    <t>https://store.dolcegabbana.com/zh/%E5%A5%B3%E5%A3%AB/%E9%9E%8B%E5%B1%A5/</t>
+  </si>
+  <si>
+    <t>https://www.louisvuitton.cn/zhs-cn/women/handbags/new-this-season/_/N-fbkzj1</t>
+  </si>
+  <si>
+    <t>https://www.louisvuitton.cn/zhs-cn/men/ready-to-wear/all-collections/_/N-10pn5c9</t>
+  </si>
+  <si>
+    <t>https://www.prada.com/cn/zh/women/bags.html</t>
+  </si>
+  <si>
+    <t>https://www.prada.com/cn/zh/women/pre-order/accessories.html</t>
+  </si>
+  <si>
+    <t>https://www.tiffany.cn/fragrance/tiffany-fragrance?lppromo=LPC1515</t>
+  </si>
+  <si>
+    <t>https://www.valentino.cn/zh-cn/%E7%94%B7%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E8%BF%90%E5%8A%A8%E9%9E%8B</t>
+  </si>
+  <si>
+    <t>https://www.valentino.cn/zh-cn/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+  </si>
+  <si>
+    <t>https://www.versace.cn/zh-cn/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E7%B3%BB%E5%88%97/</t>
+  </si>
+  <si>
+    <t>https://www.versace.cn/zh-cn/versace-home-%E5%AE%B6%E5%B1%85%E7%B2%BE%E5%93%81/%E5%8D%A7%E5%AE%A4%E5%8F%8A%E6%B5%B4%E5%AE%A4%E7%B2%BE%E5%93%81/</t>
+  </si>
+  <si>
+    <t>https://www.yslbeautycn.com/makeup-lips-and-nails</t>
+  </si>
+  <si>
+    <t>https://www.yslbeautycn.com/fragrance-for-her</t>
+  </si>
+  <si>
+    <t>https://store.miumiu.cn/zh-CN/miumiucn/autumn-picnic</t>
+  </si>
+  <si>
+    <t>https://store.miumiu.cn/zh-CN/miumiucn/must-haves</t>
+  </si>
+  <si>
+    <t>https://www.chloe.cn/cn/chloe/shop-online/%E5%A5%B3%E5%A3%AB/%E9%9D%B4%E5%AD%90</t>
+  </si>
+  <si>
+    <t>https://www.chloe.cn/cn/see-by-chloe/shop-online/%E5%A5%B3%E5%A3%AB/see-by-chloe-%E6%88%90%E8%A1%A3-%E6%96%B0%E5%93%81</t>
+  </si>
+  <si>
+    <t>https://www.acnestudios.com/cn/zh/woman/new-arrivals/</t>
+  </si>
+  <si>
+    <t>https://www.acnestudios.com/cn/zh/bla-konst/woman/ready-to-wear/</t>
+  </si>
+  <si>
+    <t>https://www.alexandermcqueen.cn/cn/alexandermcqueen/online/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+  </si>
+  <si>
+    <t>https://www.alexandermcqueen.cn/cn/alexandermcqueen/online/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+  </si>
+  <si>
+    <t>https://www.alexanderwang.cn/cn/shop/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+  </si>
+  <si>
+    <t>https://www.alexanderwang.cn/cn/shop/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+  </si>
+  <si>
+    <t>https://www.apm-monaco.cn/zh_hans_cn/flipbooks/index/view/id/135/</t>
+  </si>
+  <si>
+    <t>https://www.apm-monaco.cn/zh_hans_cn/search#q=&amp;idx=algolia_zh_hans_cn_products_apm_rateitem_desc&amp;p=0&amp;dFR[apm_collection_group][0]=normal&amp;dFR[apm_collection_group][1]=all&amp;dFR[apm_collection_group][2]=exclReseller&amp;dFR[apm_collection_group][3]=exclConcessionaire&amp;dFR[apm_product_type][0]=EARRING&amp;fR[categories.level0][0]=%E7%B3%BB%E5%88%97&amp;nR[visibility_catalog][=][0]=1&amp;is_v=1</t>
+  </si>
+  <si>
+    <t>https://www.bally.cn/zh/%E9%80%89%E8%B4%AD%E7%94%B7%E5%A3%AB%E7%B3%BB%E5%88%97/%E9%9E%8B%E5%B1%A5/</t>
+  </si>
+  <si>
+    <t>https://www.bally.cn/zh/%E7%B3%BB%E5%88%97/%E5%85%A8%E6%96%B0%E8%B4%A7%E5%93%81/%E7%8C%AE%E7%BB%99%E5%A5%B9%E7%9A%84/</t>
+  </si>
+  <si>
+    <t>https://www.bobbibrown.com.cn/products/14359/best-sellers</t>
+  </si>
+  <si>
+    <t>https://www.bobbibrown.com.cn/products/14015/repair</t>
+  </si>
+  <si>
+    <t>https://www.loewe.com/chn/zh_CN/%E5%A5%B3%E5%A3%AB%E7%B3%BB%E5%88%97/%E5%A5%B3%E5%A3%AB%E6%88%90%E8%A1%A3%E7%B3%BB%E5%88%97</t>
+  </si>
+  <si>
+    <t>https://www.loewe.com/chn/zh_CN/%E6%9C%80%E6%96%B0%E7%B2%BE%E5%93%81</t>
+  </si>
+  <si>
+    <t>https://www.michaelkors.cn/clothing</t>
+  </si>
+  <si>
+    <t>https://www.michaelkors.cn/trend/dress-shop</t>
+  </si>
+  <si>
+    <t>https://www.ferragamo.cn/woman/new-arrivals.html</t>
+  </si>
+  <si>
+    <t>https://www.ferragamo.cn/man/bags.html</t>
+  </si>
+  <si>
+    <t>https://www.stuartweitzman.cn/zh_CN/%E6%96%B0%E5%93%81/c/newarrivals</t>
+  </si>
+  <si>
+    <t>https://www.stuartweitzman.cn/zh_CN/%E9%9E%8B%E5%B1%A5/%E5%87%89%E9%9E%8B/c/sandals</t>
+  </si>
+  <si>
+    <t>https://www.furla.cn/cn/zh/eshop/%E6%96%B0%E5%93%81/</t>
+  </si>
+  <si>
+    <t>https://www.furla.cn/cn/zh/eshop/hello-kitty/hello-kitty-special-collection/</t>
+  </si>
+  <si>
+    <t>https://www.givenchy.com/apac/zh/en/women/new-arrivals/new-in/</t>
+  </si>
+  <si>
+    <t>https://www.fendi.cn/women/featured/.html</t>
+  </si>
+  <si>
+    <t>https://www.fendi.cn/men/shoe.html</t>
+  </si>
+  <si>
+    <t>https://cn.iteshop.com/b_it/women/new-arrivals?page=1&amp;fo=ct&amp;ct=5&amp;customizeConditionsType=WOMEN_NEW_ARRIVALS</t>
+  </si>
+  <si>
+    <t>https://cn.iteshop.com/b_it/men/new-arrivals</t>
+  </si>
+  <si>
+    <t>https://cn.pandora.net/zh/new-jewellery/?src=categorySearch&amp;position=top</t>
+  </si>
+  <si>
+    <t>https://cn.pandora.net/zh/collections/Reflexions/?src=categorySearch&amp;position=top</t>
+  </si>
+  <si>
+    <t>https://www.montblanc.cn/zh-cn/landingpages/whats-new.html</t>
+  </si>
+  <si>
+    <t>https://www.montblanc.cn/zh-cn/collection/leather.filter.html?=undefined</t>
+  </si>
+  <si>
+    <t>https://www.zegna.cn/cn-zh/%E6%96%B0%E5%93%81.html</t>
+  </si>
+  <si>
+    <t>https://www.zegna.cn/cn-zh/%E9%9E%8B%E5%B1%A5.html</t>
+  </si>
+  <si>
+    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
+  </si>
+  <si>
+    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/view-all-menswear</t>
+  </si>
+  <si>
+    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E6%AC%BE/%E6%B5%8F%E8%A7%88%E5%85%A8%E9%83%A8/c/151-Hogan/</t>
+  </si>
+  <si>
+    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E6%9F%A5%E7%9C%8B%E5%85%A8%E9%83%A8/c/119-Hogan/</t>
+  </si>
+  <si>
+    <t>https://www.armani.com/wy/armanicom/giorgio-armani/%E5%A5%B3%E5%A3%AB/%E5%A4%B9%E5%85%8B</t>
+  </si>
+  <si>
+    <t>https://www.giorgioarmanibeauty.cn/lips/</t>
+  </si>
+  <si>
+    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=SNOWFLAKE&amp;tokenNumber=0.4842058652681671</t>
+  </si>
+  <si>
+    <t>Van Cleef &amp; Arpels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=WATCH&amp;tokenNumber=0.7335696273534336</t>
+  </si>
+  <si>
+    <t>http://www.rolex.cn/watches/explorer.html</t>
+  </si>
+  <si>
+    <t>http://www.rolex.cn/watches/oyster-perpetual.html</t>
+  </si>
+  <si>
+    <t>https://www.piaget.cn/lp/altiplano-utlimate-automatic-campaign#block-14477</t>
+  </si>
+  <si>
+    <t>https://www.piaget.cn/jewelry/rings</t>
+  </si>
+  <si>
+    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E5%BD%A9%E5%A6%86/%E7%9C%BC%E5%A6%86/%E7%9C%BC%E7%BA%BF</t>
+  </si>
+  <si>
+    <t>https://www.chanel.com/zh_CN/fashion/products/handbags/chanel-31-handbag.html</t>
+  </si>
+  <si>
+    <t>CHANEL 时尚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩妆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yves Saint laurent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处都是彩妆，时装之前弄过，成功率不高的那个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Givenchy 时尚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armani 时尚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.givenchybeauty.cn/%E5%BD%A9%E5%A6%86/%E9%9D%A2%E9%83%A8/</t>
+  </si>
+  <si>
+    <t>APM Monaco</t>
+  </si>
+  <si>
     <t>LOEWE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOUIS VUITTON</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> MICHAEL KORS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>miu miu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Salvatore Ferragamo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STUART WEITZMAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> TIFFANY&amp;Co.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Valentino</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VERSACE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>furla</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOD'S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fendi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRADA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I.T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PANDORA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Montblanc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ermenegildo Zegna</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUNHILL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hogan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLEX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIAGET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E6%9C%80%E6%96%B0%E4%B8%8A%E6%9E%B6#{%22ytosQuery%22:%22true%22,%22department%22:%22nwrrvlsw%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2216%22,%22partialLoadedItems%22:%2216%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22nwrrvlsw%22,%22page%22:1}]}</t>
-  </si>
-  <si>
-    <t>https://store.balenciaga.cn/cn/%E5%A5%B3%E5%A3%AB/%E7%94%84%E9%80%89%E7%A4%BC%E7%89%A9?TP=174469&amp;utm_source=20181016_BAL_collection_WFP_Ramp_up_m&amp;utm_medium=email&amp;utm_campaign=cn&amp;utm_content=cta1#{%22ytosQuery%22:%22true%22,%22department%22:%22gftngslcww%22,%22gender%22:%22D%22,%22season%22:%22A,P,E%22,%22yurirulename%22:%22searchwithdepartmentgallery%22,%22agerange%22:%22adult%22,%22page%22:%221%22,%22productsPerPage%22:%2224%22,%22suggestion%22:%22false%22,%22facetsvalue%22:[],%22totalPages%22:%221%22,%22rsiUsed%22:%22false%22,%22totalItems%22:%2211%22,%22partialLoadedItems%22:%2211%22,%22itemsToLoadOnNextPage%22:%220%22,%22departments%22:[{%22id%22:%22gftngslcww%22,%22page%22:1}]}</t>
-  </si>
-  <si>
-    <t>https://www.chanel.cn/zh_CN/fragrance-beauty/fragrance/p/women/n_5.html</t>
-  </si>
-  <si>
-    <t>https://cn.burberry.com/womens-new-arrivals-new-in/</t>
-  </si>
-  <si>
-    <t>https://cn.burberry.com/baby/</t>
-  </si>
-  <si>
-    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%8C%85%E8%A2%8B/%E6%89%98%E7%89%B9%E6%89%8B%E8%A2%8B/c/123-Tods/</t>
-  </si>
-  <si>
-    <t>https://www.tods.cn/cn-zh/%E5%A5%B3/%E5%BF%85%E7%9C%8B/%E6%96%B0%E5%93%81%E4%B8%8A%E5%B8%82/c/194-Tods/</t>
-  </si>
-  <si>
-    <t>https://www.cartier.cn/zh-cn/%E7%B3%BB%E5%88%97/%E7%8F%A0%E5%AE%9D%E7%B3%BB%E5%88%97/%E7%B1%BB%E5%88%AB.viewall.html</t>
-  </si>
-  <si>
-    <t>https://www.cartier.cn/zh-cn/%E7%B3%BB%E5%88%97/%E9%85%8D%E4%BB%B6%E7%B3%BB%E5%88%97/%E7%9A%AE%E5%85%B7.viewall.html</t>
-  </si>
-  <si>
-    <t>https://www.tiffany.cn/jewelry/new-jewelry?trackbgfm=nav</t>
-  </si>
-  <si>
-    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%BD%93%E5%AD%A3%E7%B3%BB%E5%88%97/</t>
-  </si>
-  <si>
-    <t>https://www.celine.com/zhs-cn/%E4%BA%A7%E5%93%81%E4%BF%A1%E6%81%AF/%E5%85%A8%E6%96%B0%E7%B3%BB%E5%88%97/</t>
-  </si>
-  <si>
-    <t>https://china.coach.com/women/newarrivals.htm?nav=09900100100</t>
-  </si>
-  <si>
-    <t>https://china.coach.com/women/dreamer.htm?nav=09800600150</t>
-  </si>
-  <si>
-    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E6%88%90%E8%A1%A3/%E6%89%80%E6%9C%89%E6%88%90%E8%A1%A3</t>
-  </si>
-  <si>
-    <t>https://store.dolcegabbana.com/zh/%E5%A5%B3%E5%A3%AB/%E6%9C%8D%E8%A3%85/</t>
-  </si>
-  <si>
-    <t>https://store.dolcegabbana.com/zh/%E5%A5%B3%E5%A3%AB/%E9%9E%8B%E5%B1%A5/</t>
-  </si>
-  <si>
-    <t>https://www.louisvuitton.cn/zhs-cn/women/handbags/new-this-season/_/N-fbkzj1</t>
-  </si>
-  <si>
-    <t>https://www.louisvuitton.cn/zhs-cn/men/ready-to-wear/all-collections/_/N-10pn5c9</t>
-  </si>
-  <si>
-    <t>https://www.prada.com/cn/zh/women/bags.html</t>
-  </si>
-  <si>
-    <t>https://www.prada.com/cn/zh/women/pre-order/accessories.html</t>
-  </si>
-  <si>
-    <t>https://www.tiffany.cn/fragrance/tiffany-fragrance?lppromo=LPC1515</t>
-  </si>
-  <si>
-    <t>https://www.valentino.cn/zh-cn/%E7%94%B7%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E8%BF%90%E5%8A%A8%E9%9E%8B</t>
-  </si>
-  <si>
-    <t>https://www.valentino.cn/zh-cn/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-  </si>
-  <si>
-    <t>https://www.versace.cn/zh-cn/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E7%B3%BB%E5%88%97/</t>
-  </si>
-  <si>
-    <t>https://www.versace.cn/zh-cn/versace-home-%E5%AE%B6%E5%B1%85%E7%B2%BE%E5%93%81/%E5%8D%A7%E5%AE%A4%E5%8F%8A%E6%B5%B4%E5%AE%A4%E7%B2%BE%E5%93%81/</t>
-  </si>
-  <si>
-    <t>https://www.yslbeautycn.com/makeup-lips-and-nails</t>
-  </si>
-  <si>
-    <t>https://www.yslbeautycn.com/fragrance-for-her</t>
-  </si>
-  <si>
-    <t>https://store.miumiu.cn/zh-CN/miumiucn/autumn-picnic</t>
-  </si>
-  <si>
-    <t>https://store.miumiu.cn/zh-CN/miumiucn/must-haves</t>
-  </si>
-  <si>
-    <t>https://www.chloe.cn/cn/chloe/shop-online/%E5%A5%B3%E5%A3%AB/%E9%9D%B4%E5%AD%90</t>
-  </si>
-  <si>
-    <t>https://www.chloe.cn/cn/see-by-chloe/shop-online/%E5%A5%B3%E5%A3%AB/see-by-chloe-%E6%88%90%E8%A1%A3-%E6%96%B0%E5%93%81</t>
-  </si>
-  <si>
-    <t>https://www.acnestudios.com/cn/zh/woman/new-arrivals/</t>
-  </si>
-  <si>
-    <t>https://www.acnestudios.com/cn/zh/bla-konst/woman/ready-to-wear/</t>
-  </si>
-  <si>
-    <t>https://www.alexandermcqueen.cn/cn/alexandermcqueen/online/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-  </si>
-  <si>
-    <t>https://www.alexandermcqueen.cn/cn/alexandermcqueen/online/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-  </si>
-  <si>
-    <t>https://www.alexanderwang.cn/cn/shop/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-  </si>
-  <si>
-    <t>https://www.alexanderwang.cn/cn/shop/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-  </si>
-  <si>
-    <t>https://www.apm-monaco.cn/zh_hans_cn/flipbooks/index/view/id/135/</t>
-  </si>
-  <si>
-    <t>https://www.apm-monaco.cn/zh_hans_cn/search#q=&amp;idx=algolia_zh_hans_cn_products_apm_rateitem_desc&amp;p=0&amp;dFR[apm_collection_group][0]=normal&amp;dFR[apm_collection_group][1]=all&amp;dFR[apm_collection_group][2]=exclReseller&amp;dFR[apm_collection_group][3]=exclConcessionaire&amp;dFR[apm_product_type][0]=EARRING&amp;fR[categories.level0][0]=%E7%B3%BB%E5%88%97&amp;nR[visibility_catalog][=][0]=1&amp;is_v=1</t>
-  </si>
-  <si>
-    <t>https://www.bally.cn/zh/%E9%80%89%E8%B4%AD%E7%94%B7%E5%A3%AB%E7%B3%BB%E5%88%97/%E9%9E%8B%E5%B1%A5/</t>
-  </si>
-  <si>
-    <t>https://www.bally.cn/zh/%E7%B3%BB%E5%88%97/%E5%85%A8%E6%96%B0%E8%B4%A7%E5%93%81/%E7%8C%AE%E7%BB%99%E5%A5%B9%E7%9A%84/</t>
-  </si>
-  <si>
-    <t>https://www.bobbibrown.com.cn/products/14359/best-sellers</t>
-  </si>
-  <si>
-    <t>https://www.bobbibrown.com.cn/products/14015/repair</t>
-  </si>
-  <si>
-    <t>https://www.loewe.com/chn/zh_CN/%E5%A5%B3%E5%A3%AB%E7%B3%BB%E5%88%97/%E5%A5%B3%E5%A3%AB%E6%88%90%E8%A1%A3%E7%B3%BB%E5%88%97</t>
-  </si>
-  <si>
-    <t>https://www.loewe.com/chn/zh_CN/%E6%9C%80%E6%96%B0%E7%B2%BE%E5%93%81</t>
-  </si>
-  <si>
-    <t>https://www.michaelkors.cn/clothing</t>
-  </si>
-  <si>
-    <t>https://www.michaelkors.cn/trend/dress-shop</t>
-  </si>
-  <si>
-    <t>https://www.ferragamo.cn/woman/new-arrivals.html</t>
-  </si>
-  <si>
-    <t>https://www.ferragamo.cn/man/bags.html</t>
-  </si>
-  <si>
-    <t>https://www.stuartweitzman.cn/zh_CN/%E6%96%B0%E5%93%81/c/newarrivals</t>
-  </si>
-  <si>
-    <t>https://www.stuartweitzman.cn/zh_CN/%E9%9E%8B%E5%B1%A5/%E5%87%89%E9%9E%8B/c/sandals</t>
-  </si>
-  <si>
-    <t>https://www.furla.cn/cn/zh/eshop/%E6%96%B0%E5%93%81/</t>
-  </si>
-  <si>
-    <t>https://www.furla.cn/cn/zh/eshop/hello-kitty/hello-kitty-special-collection/</t>
-  </si>
-  <si>
-    <t>https://www.givenchy.com/apac/zh/en/women/new-arrivals/new-in/</t>
-  </si>
-  <si>
-    <t>https://www.fendi.cn/women/featured/.html</t>
-  </si>
-  <si>
-    <t>https://www.fendi.cn/men/shoe.html</t>
-  </si>
-  <si>
-    <t>https://cn.iteshop.com/b_it/women/new-arrivals?page=1&amp;fo=ct&amp;ct=5&amp;customizeConditionsType=WOMEN_NEW_ARRIVALS</t>
-  </si>
-  <si>
-    <t>https://cn.iteshop.com/b_it/men/new-arrivals</t>
-  </si>
-  <si>
-    <t>https://cn.pandora.net/zh/new-jewellery/?src=categorySearch&amp;position=top</t>
-  </si>
-  <si>
-    <t>https://cn.pandora.net/zh/collections/Reflexions/?src=categorySearch&amp;position=top</t>
-  </si>
-  <si>
-    <t>https://www.montblanc.cn/zh-cn/landingpages/whats-new.html</t>
-  </si>
-  <si>
-    <t>https://www.montblanc.cn/zh-cn/collection/leather.filter.html?=undefined</t>
-  </si>
-  <si>
-    <t>https://www.zegna.cn/cn-zh/%E6%96%B0%E5%93%81.html</t>
-  </si>
-  <si>
-    <t>https://www.zegna.cn/cn-zh/%E9%9E%8B%E5%B1%A5.html</t>
-  </si>
-  <si>
-    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/%E6%96%B0%E5%93%81%E4%B8%8A%E6%9E%B6</t>
-  </si>
-  <si>
-    <t>https://www.dunhill.cn/cn/%E7%94%B7%E5%A3%AB/view-all-menswear</t>
-  </si>
-  <si>
-    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E6%96%B0%E6%AC%BE/%E6%B5%8F%E8%A7%88%E5%85%A8%E9%83%A8/c/151-Hogan/</t>
-  </si>
-  <si>
-    <t>https://www.hogan.cn/cn-zh/%E5%A5%B3%E5%A3%AB/%E9%9E%8B%E5%B1%A5/%E6%9F%A5%E7%9C%8B%E5%85%A8%E9%83%A8/c/119-Hogan/</t>
-  </si>
-  <si>
-    <t>https://www.armani.com/wy/armanicom/giorgio-armani/%E5%A5%B3%E5%A3%AB/%E5%A4%B9%E5%85%8B</t>
-  </si>
-  <si>
-    <t>https://www.giorgioarmanibeauty.cn/lips/</t>
-  </si>
-  <si>
-    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=SNOWFLAKE&amp;tokenNumber=0.4842058652681671</t>
-  </si>
-  <si>
-    <t>Van Cleef &amp; Arpels</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.vancleefarpels.cn/cn/zh/search/search.html?prodSort=NOVE&amp;srchSecondary=CREATIONS&amp;isAvail=false&amp;srchText=&amp;srchTags=WATCH&amp;tokenNumber=0.7335696273534336</t>
-  </si>
-  <si>
-    <t>http://www.rolex.cn/watches/explorer.html</t>
-  </si>
-  <si>
-    <t>http://www.rolex.cn/watches/oyster-perpetual.html</t>
-  </si>
-  <si>
-    <t>https://www.piaget.cn/lp/altiplano-utlimate-automatic-campaign#block-14477</t>
-  </si>
-  <si>
-    <t>https://www.piaget.cn/jewelry/rings</t>
-  </si>
-  <si>
-    <t>https://www.dior.cn/zh_cn/%E5%A5%B3%E5%A3%AB/%E5%BD%A9%E5%A6%86/%E7%9C%BC%E5%A6%86/%E7%9C%BC%E7%BA%BF</t>
-  </si>
-  <si>
-    <t>https://www.chanel.com/zh_CN/fashion/products/handbags/chanel-31-handbag.html</t>
-  </si>
-  <si>
-    <t>CHANEL 时尚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩妆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yves Saint laurent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此处都是彩妆，时装之前弄过，成功率不高的那个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Givenchy 时尚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armani 时尚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.givenchybeauty.cn/%E5%BD%A9%E5%A6%86/%E9%9D%A2%E9%83%A8/</t>
-  </si>
-  <si>
-    <t>APM Monaco</t>
   </si>
 </sst>
 </file>
@@ -877,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -890,18 +889,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -909,41 +908,41 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -951,13 +950,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -965,13 +964,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -979,27 +978,27 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -1007,13 +1006,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -1021,13 +1020,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -1035,71 +1034,71 @@
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -1107,13 +1106,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -1121,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -1135,13 +1134,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -1149,27 +1148,27 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -1177,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -1191,269 +1190,269 @@
         <v>5</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4CE184-074F-444F-A7C1-9AEED61855EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51622DD-9E39-401E-9FC6-EA0DE6BA6BAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1214,7 +1214,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1228,7 +1228,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B49" s="2" t="s">

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51622DD-9E39-401E-9FC6-EA0DE6BA6BAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7277F65F-59E8-4FCC-881D-CEE47B982B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -877,7 +877,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1242,7 +1242,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="2" t="s">

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7277F65F-59E8-4FCC-881D-CEE47B982B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA4B8DC-69E4-4814-B964-5FD633888556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -876,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -1256,7 +1256,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="2" t="s">

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA4B8DC-69E4-4814-B964-5FD633888556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC3776-F813-4E8C-9C61-0C55FFF49FAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -877,7 +877,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1270,7 +1270,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B55" s="2" t="s">

--- a/urls_20181025.xlsx
+++ b/urls_20181025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC3776-F813-4E8C-9C61-0C55FFF49FAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C12168F-2F1C-4B64-AF9A-CF340A49E9F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -877,7 +877,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
